--- a/eigenValues(step).xlsx
+++ b/eigenValues(step).xlsx
@@ -11,13 +11,13 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -25,8 +25,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -45,6 +58,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -58,12 +83,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -365,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -376,248 +406,363 @@
     <col min="1" max="1" width="15.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>-9.1452E+20</v>
+        <v>-3773246456588.52</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="9"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>-5.8743E+16</v>
+        <v>-9.1451738060606E+20</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="9"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>-3773200000000</v>
+        <v>-15568.199532406001</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>5.8743E+16</v>
-      </c>
-      <c r="B4">
+      <c r="C3" s="9"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>242368833.18080801</v>
+      </c>
+      <c r="B4" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3779200000000</v>
-      </c>
-      <c r="B5">
+      <c r="C4" s="9"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>5.8742651418611E+16</v>
+      </c>
+      <c r="B5" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>242370000</v>
-      </c>
-      <c r="B6">
+      <c r="C5" s="9"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>0.99999999794033301</v>
+      </c>
+      <c r="B6" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>-5.8743E+16</v>
+        <v>-242368835.68080699</v>
       </c>
       <c r="B7">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" s="9"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>-3773200000000</v>
+        <v>-5.8742652509076496E+16</v>
       </c>
       <c r="B8">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>-242370000</v>
+        <v>-1.0000000000033</v>
       </c>
       <c r="B9">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>1.52E-2</v>
+      <c r="C9" s="9"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>9.8545368024104805E-12</v>
       </c>
       <c r="B10" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" s="8">
+        <f>A10/A4</f>
+        <v>4.0659257517070937E-20</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>-7.7148000000000002E-7</v>
+        <v>6.7412661942623395E-2</v>
       </c>
       <c r="B11" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" s="8">
+        <f>A11/A5</f>
+        <v>1.1475931084933211E-18</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>-3.4072999999999998E-11</v>
+        <v>-8.4628985676750307E-25</v>
       </c>
       <c r="B12" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" s="8">
+        <f t="shared" ref="C11:E22" si="0">A12/A6</f>
+        <v>-8.4628985851057844E-25</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>-13549000000000</v>
+        <v>-19042.617676879599</v>
       </c>
       <c r="B13">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" s="1">
+        <f t="shared" si="0"/>
+        <v>7.8568755027392208E-5</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>-395590000</v>
+        <v>137608518.088974</v>
       </c>
       <c r="B14">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.3425656181887888E-9</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>-23052</v>
+        <v>-1</v>
       </c>
       <c r="B15">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99999999999669997</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>-7.6046999999999998E-7</v>
+        <v>-1.72932656411117E-16</v>
       </c>
       <c r="B16" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="8">
+        <f t="shared" si="0"/>
+        <v>-1.7548532201819634E-5</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>2.0653000000000001E-12</v>
+        <v>-1.3689561644296201E-10</v>
       </c>
       <c r="B17" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="8">
+        <f t="shared" si="0"/>
+        <v>-2.0307107373905114E-9</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>-3.8352999999999999E-16</v>
+        <v>-3.1301910339577399E-34</v>
       </c>
       <c r="B18" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="8">
+        <f t="shared" si="0"/>
+        <v>3.6987221445780382E-10</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>-764800000</v>
+        <v>-1</v>
       </c>
       <c r="B19">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="1">
+        <f t="shared" si="0"/>
+        <v>5.2513788648613147E-5</v>
+      </c>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>-4809.1000000000004</v>
+        <v>-1.0000000000040301</v>
       </c>
       <c r="B20">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>-4.3204000000000002</v>
-      </c>
-      <c r="B21" s="4">
+      <c r="C20" s="1">
+        <f t="shared" si="0"/>
+        <v>-7.2669919994157398E-9</v>
+      </c>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>-0.99999999999516997</v>
+      </c>
+      <c r="B21" s="6">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99999999999516997</v>
+      </c>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>-1.0329E-12</v>
+        <v>-4.0266980118463198E-44</v>
       </c>
       <c r="B22" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" s="8">
+        <f t="shared" si="0"/>
+        <v>2.3284775099236047E-28</v>
+      </c>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>-7.2243999999999999E-17</v>
+        <v>-1.0878058762071999E-32</v>
       </c>
       <c r="B23" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" s="8">
+        <f>A23/A17</f>
+        <v>7.9462433091160207E-23</v>
+      </c>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>-6.6859999999999998E-24</v>
+        <v>-3.0846377519173999E-46</v>
       </c>
       <c r="B24" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" s="8">
+        <f>A24/A18</f>
+        <v>9.8544712397864638E-13</v>
+      </c>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B25">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" s="1">
+        <f t="shared" ref="C25:E30" si="1">A25/A19</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B26">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99999999999596989</v>
+      </c>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B27">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>0</v>
       </c>
       <c r="B28" s="2">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>0</v>
       </c>
       <c r="B29" s="2">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>0</v>
       </c>
       <c r="B30" s="2">
         <v>30</v>
       </c>
+      <c r="C30" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
